--- a/SAPPlatformTest/src/resources/TestData.xlsx
+++ b/SAPPlatformTest/src/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajak/git/repository/SAPPlatformTest/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68A985A-CC30-CA47-B9E5-71D76FD5510E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFAFB7A-E61D-9A40-A7F5-6A98DD46E48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="13980" xr2:uid="{578C67C1-BD32-6F49-802B-E1B2B5DBAF5E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>FirstName</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>AAAA2@gmail.com</t>
+  </si>
+  <si>
+    <t>AAAA3</t>
+  </si>
+  <si>
+    <t>AAAA4</t>
+  </si>
+  <si>
+    <t>BBBB3</t>
+  </si>
+  <si>
+    <t>BBBB4</t>
+  </si>
+  <si>
+    <t>AAAA3@gmail.com</t>
+  </si>
+  <si>
+    <t>AAAA4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -456,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AB5324-046A-D840-8589-E06052671086}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,15 +555,68 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{5B674900-A309-0C4E-AF28-63232C9AC53B}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{9231AC2B-0B65-7D4E-A863-E5BD687FE496}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{30E2694F-3296-3840-9FB9-7A3794AEF8CF}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{9CBCA64C-903F-764F-8B9A-F9DEB4BCA9BE}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{E6297C65-7AB7-4441-8691-7BF6C2FAAF99}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{77E65D25-AF51-1B40-B33C-28B0D3AEBC61}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{30E2694F-3296-3840-9FB9-7A3794AEF8CF}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{E6297C65-7AB7-4441-8691-7BF6C2FAAF99}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{77E65D25-AF51-1B40-B33C-28B0D3AEBC61}"/>
+    <hyperlink ref="C4:C5" r:id="rId5" display="AAAA2@gmail.com" xr:uid="{F1F71D7F-742C-A541-B9C8-318F24378FE4}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{8D1B90E5-142D-0D4A-B5B9-303B3F0AC65D}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{BAEC25B5-0957-C547-B24E-EBE3C7BE6134}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{43120859-C526-0344-9E3B-65B79F35FA54}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{E283EA1A-D74C-7944-A433-BA1918885515}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{C69BE3B9-8A2B-0A49-B2FC-5F6EE0AB76B2}"/>
+    <hyperlink ref="E3" r:id="rId11" display="AAAA2@gmail.com" xr:uid="{E3F604A5-219D-FC45-A263-3CF6DCB2A586}"/>
+    <hyperlink ref="E4" r:id="rId12" display="AAAA2@gmail.com" xr:uid="{54C557BE-10E6-FD46-BBE8-8D8156E47C75}"/>
+    <hyperlink ref="E5" r:id="rId13" display="AAAA2@gmail.com" xr:uid="{B48FE15B-2A79-C246-8636-2B51C05446D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
